--- a/nor.xlsx
+++ b/nor.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hojun\Desktop\UVA\6th sem\CS 4750\FootballDatabase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="290">
   <si>
     <t>No</t>
   </si>
@@ -878,17 +883,25 @@
   </si>
   <si>
     <t>NJ</t>
+  </si>
+  <si>
+    <t>Team</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -896,8 +909,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -909,7 +929,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -932,13 +952,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -947,6 +981,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -993,7 +1035,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1025,9 +1067,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1059,6 +1119,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1234,14 +1312,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J89" sqref="A2:J89"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1266,8 +1346,11 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1295,8 +1378,11 @@
       <c r="I2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1324,8 +1410,11 @@
       <c r="I3" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1353,8 +1442,11 @@
       <c r="I4" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1382,8 +1474,11 @@
       <c r="I5" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1411,8 +1506,11 @@
       <c r="I6" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1440,8 +1538,11 @@
       <c r="I7" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1469,8 +1570,11 @@
       <c r="I8" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1498,8 +1602,11 @@
       <c r="I9" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1527,8 +1634,11 @@
       <c r="I10" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1556,8 +1666,11 @@
       <c r="I11" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1585,8 +1698,11 @@
       <c r="I12" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1614,8 +1730,11 @@
       <c r="I13" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1643,8 +1762,11 @@
       <c r="I14" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1672,8 +1794,11 @@
       <c r="I15" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1701,8 +1826,11 @@
       <c r="I16" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1730,8 +1858,11 @@
       <c r="I17" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1759,8 +1890,11 @@
       <c r="I18" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1788,8 +1922,11 @@
       <c r="I19" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1817,8 +1954,11 @@
       <c r="I20" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1846,8 +1986,11 @@
       <c r="I21" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1875,8 +2018,11 @@
       <c r="I22" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1904,8 +2050,11 @@
       <c r="I23" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1933,8 +2082,11 @@
       <c r="I24" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1962,8 +2114,11 @@
       <c r="I25" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1991,8 +2146,11 @@
       <c r="I26" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2020,8 +2178,11 @@
       <c r="I27" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2049,8 +2210,11 @@
       <c r="I28" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2078,8 +2242,11 @@
       <c r="I29" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2107,8 +2274,11 @@
       <c r="I30" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2136,8 +2306,11 @@
       <c r="I31" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2165,8 +2338,11 @@
       <c r="I32" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="J32" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2194,8 +2370,11 @@
       <c r="I33" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2223,8 +2402,11 @@
       <c r="I34" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2252,8 +2434,11 @@
       <c r="I35" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="J35" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2281,8 +2466,11 @@
       <c r="I36" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2310,8 +2498,11 @@
       <c r="I37" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="J37" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2339,8 +2530,11 @@
       <c r="I38" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2368,8 +2562,11 @@
       <c r="I39" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2397,8 +2594,11 @@
       <c r="I40" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2426,8 +2626,11 @@
       <c r="I41" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2455,8 +2658,11 @@
       <c r="I42" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2484,8 +2690,11 @@
       <c r="I43" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2513,8 +2722,11 @@
       <c r="I44" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="J44" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2542,8 +2754,11 @@
       <c r="I45" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2571,8 +2786,11 @@
       <c r="I46" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2600,8 +2818,11 @@
       <c r="I47" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="J47" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2629,8 +2850,11 @@
       <c r="I48" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="J48" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2658,8 +2882,11 @@
       <c r="I49" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2687,8 +2914,11 @@
       <c r="I50" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2716,8 +2946,11 @@
       <c r="I51" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="J51" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2745,8 +2978,11 @@
       <c r="I52" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2774,8 +3010,11 @@
       <c r="I53" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2803,8 +3042,11 @@
       <c r="I54" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="J54" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2832,8 +3074,11 @@
       <c r="I55" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="J55" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2861,8 +3106,11 @@
       <c r="I56" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2890,8 +3138,11 @@
       <c r="I57" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="J57" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2919,8 +3170,11 @@
       <c r="I58" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2948,8 +3202,11 @@
       <c r="I59" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="J59" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2977,8 +3234,11 @@
       <c r="I60" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3006,8 +3266,11 @@
       <c r="I61" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="J61" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3035,8 +3298,11 @@
       <c r="I62" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="J62" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3064,8 +3330,11 @@
       <c r="I63" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="J63" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3093,8 +3362,11 @@
       <c r="I64" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3122,8 +3394,11 @@
       <c r="I65" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="J65" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3151,8 +3426,11 @@
       <c r="I66" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="J66" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3180,8 +3458,11 @@
       <c r="I67" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="J67" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3209,8 +3490,11 @@
       <c r="I68" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3238,8 +3522,11 @@
       <c r="I69" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="J69" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3267,8 +3554,11 @@
       <c r="I70" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="J70" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3296,8 +3586,11 @@
       <c r="I71" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="J71" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3325,8 +3618,11 @@
       <c r="I72" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="J72" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3354,8 +3650,11 @@
       <c r="I73" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="J73" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3383,8 +3682,11 @@
       <c r="I74" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="J74" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3412,8 +3714,11 @@
       <c r="I75" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="J75" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3441,8 +3746,11 @@
       <c r="I76" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3470,8 +3778,11 @@
       <c r="I77" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="J77" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3499,8 +3810,11 @@
       <c r="I78" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="J78" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3528,8 +3842,11 @@
       <c r="I79" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="J79" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3557,8 +3874,11 @@
       <c r="I80" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="J80" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3586,8 +3906,11 @@
       <c r="I81" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="J81" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3615,8 +3938,11 @@
       <c r="I82" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="J82" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3644,8 +3970,11 @@
       <c r="I83" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="J83" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3673,8 +4002,11 @@
       <c r="I84" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="J84" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3702,8 +4034,11 @@
       <c r="I85" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="86" spans="1:9">
+      <c r="J85" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3731,8 +4066,11 @@
       <c r="I86" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="J86" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3760,8 +4098,11 @@
       <c r="I87" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="J87" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3789,8 +4130,11 @@
       <c r="I88" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="J88" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3818,8 +4162,12 @@
       <c r="I89" t="s">
         <v>280</v>
       </c>
+      <c r="J89" t="s">
+        <v>289</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/nor.xlsx
+++ b/nor.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="291">
   <si>
     <t>No</t>
   </si>
@@ -890,6 +890,10 @@
   </si>
   <si>
     <t>nor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1313,15 +1317,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J89" sqref="A2:J89"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1349,8 +1353,11 @@
       <c r="J1" s="2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K1" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1381,8 +1388,11 @@
       <c r="J2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K2">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1413,8 +1423,11 @@
       <c r="J3" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K3">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1445,8 +1458,11 @@
       <c r="J4" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K4">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1477,8 +1493,11 @@
       <c r="J5" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K5">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1509,8 +1528,11 @@
       <c r="J6" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K6">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1541,8 +1563,11 @@
       <c r="J7" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K7">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1573,8 +1598,11 @@
       <c r="J8" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K8">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1605,8 +1633,11 @@
       <c r="J9" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K9">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1637,8 +1668,11 @@
       <c r="J10" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K10">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1669,8 +1703,11 @@
       <c r="J11" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K11">
+        <v>4010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1701,8 +1738,11 @@
       <c r="J12" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K12">
+        <v>4011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1733,8 +1773,11 @@
       <c r="J13" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K13">
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1765,8 +1808,11 @@
       <c r="J14" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K14">
+        <v>4013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1797,8 +1843,11 @@
       <c r="J15" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K15">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1829,8 +1878,11 @@
       <c r="J16" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K16">
+        <v>4015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1861,8 +1913,11 @@
       <c r="J17" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K17">
+        <v>4016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1893,8 +1948,11 @@
       <c r="J18" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K18">
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1925,8 +1983,11 @@
       <c r="J19" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K19">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1957,8 +2018,11 @@
       <c r="J20" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K20">
+        <v>4019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1989,8 +2053,11 @@
       <c r="J21" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K21">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2021,8 +2088,11 @@
       <c r="J22" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K22">
+        <v>4021</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2053,8 +2123,11 @@
       <c r="J23" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K23">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2085,8 +2158,11 @@
       <c r="J24" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K24">
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2117,8 +2193,11 @@
       <c r="J25" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K25">
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2149,8 +2228,11 @@
       <c r="J26" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K26">
+        <v>4025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2181,8 +2263,11 @@
       <c r="J27" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K27">
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2213,8 +2298,11 @@
       <c r="J28" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K28">
+        <v>4027</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2245,8 +2333,11 @@
       <c r="J29" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K29">
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2277,8 +2368,11 @@
       <c r="J30" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K30">
+        <v>4029</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2309,8 +2403,11 @@
       <c r="J31" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K31">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2341,8 +2438,11 @@
       <c r="J32" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K32">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2373,8 +2473,11 @@
       <c r="J33" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K33">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2405,8 +2508,11 @@
       <c r="J34" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K34">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2437,8 +2543,11 @@
       <c r="J35" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K35">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2469,8 +2578,11 @@
       <c r="J36" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K36">
+        <v>4035</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2501,8 +2613,11 @@
       <c r="J37" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K37">
+        <v>4036</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2533,8 +2648,11 @@
       <c r="J38" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K38">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2565,8 +2683,11 @@
       <c r="J39" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K39">
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2597,8 +2718,11 @@
       <c r="J40" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K40">
+        <v>4039</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2629,8 +2753,11 @@
       <c r="J41" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K41">
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2661,8 +2788,11 @@
       <c r="J42" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K42">
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2693,8 +2823,11 @@
       <c r="J43" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K43">
+        <v>4042</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2725,8 +2858,11 @@
       <c r="J44" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K44">
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2757,8 +2893,11 @@
       <c r="J45" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K45">
+        <v>4044</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2789,8 +2928,11 @@
       <c r="J46" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K46">
+        <v>4045</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2821,8 +2963,11 @@
       <c r="J47" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K47">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2853,8 +2998,11 @@
       <c r="J48" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K48">
+        <v>4047</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2885,8 +3033,11 @@
       <c r="J49" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K49">
+        <v>4048</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2917,8 +3068,11 @@
       <c r="J50" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K50">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2949,8 +3103,11 @@
       <c r="J51" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K51">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2981,8 +3138,11 @@
       <c r="J52" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K52">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3013,8 +3173,11 @@
       <c r="J53" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K53">
+        <v>4052</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3045,8 +3208,11 @@
       <c r="J54" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K54">
+        <v>4053</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3077,8 +3243,11 @@
       <c r="J55" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K55">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3109,8 +3278,11 @@
       <c r="J56" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K56">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3141,8 +3313,11 @@
       <c r="J57" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K57">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3173,8 +3348,11 @@
       <c r="J58" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K58">
+        <v>4057</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3205,8 +3383,11 @@
       <c r="J59" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K59">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3237,8 +3418,11 @@
       <c r="J60" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K60">
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3269,8 +3453,11 @@
       <c r="J61" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K61">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3301,8 +3488,11 @@
       <c r="J62" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K62">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3333,8 +3523,11 @@
       <c r="J63" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K63">
+        <v>4062</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3365,8 +3558,11 @@
       <c r="J64" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K64">
+        <v>4063</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3397,8 +3593,11 @@
       <c r="J65" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K65">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3429,8 +3628,11 @@
       <c r="J66" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K66">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3461,8 +3663,11 @@
       <c r="J67" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K67">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3493,8 +3698,11 @@
       <c r="J68" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K68">
+        <v>4067</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3525,8 +3733,11 @@
       <c r="J69" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K69">
+        <v>4068</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3557,8 +3768,11 @@
       <c r="J70" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K70">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3589,8 +3803,11 @@
       <c r="J71" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K71">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3621,8 +3838,11 @@
       <c r="J72" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K72">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3653,8 +3873,11 @@
       <c r="J73" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K73">
+        <v>4072</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3685,8 +3908,11 @@
       <c r="J74" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K74">
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3717,8 +3943,11 @@
       <c r="J75" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K75">
+        <v>4074</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3749,8 +3978,11 @@
       <c r="J76" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K76">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3781,8 +4013,11 @@
       <c r="J77" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K77">
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3813,8 +4048,11 @@
       <c r="J78" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K78">
+        <v>4077</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3845,8 +4083,11 @@
       <c r="J79" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K79">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3877,8 +4118,11 @@
       <c r="J80" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K80">
+        <v>4079</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3909,8 +4153,11 @@
       <c r="J81" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K81">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3941,8 +4188,11 @@
       <c r="J82" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K82">
+        <v>4081</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3973,8 +4223,11 @@
       <c r="J83" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K83">
+        <v>4082</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4005,8 +4258,11 @@
       <c r="J84" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K84">
+        <v>4083</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4037,8 +4293,11 @@
       <c r="J85" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K85">
+        <v>4084</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4069,8 +4328,11 @@
       <c r="J86" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K86">
+        <v>4085</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4101,8 +4363,11 @@
       <c r="J87" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K87">
+        <v>4086</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4133,8 +4398,11 @@
       <c r="J88" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K88">
+        <v>4087</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4164,10 +4432,14 @@
       </c>
       <c r="J89" t="s">
         <v>289</v>
+      </c>
+      <c r="K89">
+        <v>4088</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>